--- a/graph/other_mppi.xlsx
+++ b/graph/other_mppi.xlsx
@@ -3061,7 +3061,7 @@
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -5949,13 +5949,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O82"/>
+  <dimension ref="A1:K82"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="Q9" activeCellId="0" sqref="Q9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -6026,14 +6026,6 @@
       <c r="K2" s="0" t="n">
         <v>0.15247</v>
       </c>
-      <c r="M2" s="0" t="n">
-        <f aca="false">IF(I2=0, 1, I2)</f>
-        <v>0.066254</v>
-      </c>
-      <c r="O2" s="0" t="n">
-        <f aca="false">IF(K2=0, 1, K2)</f>
-        <v>0.15247</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
@@ -6069,14 +6061,6 @@
       <c r="K3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M3" s="0" t="n">
-        <f aca="false">IF(I3=0, 1, I3)</f>
-        <v>1</v>
-      </c>
-      <c r="O3" s="0" t="n">
-        <f aca="false">IF(K3=0, 1, K3)</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
@@ -6112,14 +6096,6 @@
       <c r="K4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M4" s="0" t="n">
-        <f aca="false">IF(I4=0, 1, I4)</f>
-        <v>1</v>
-      </c>
-      <c r="O4" s="0" t="n">
-        <f aca="false">IF(K4=0, 1, K4)</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
@@ -6155,14 +6131,6 @@
       <c r="K5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M5" s="0" t="n">
-        <f aca="false">IF(I5=0, 1, I5)</f>
-        <v>1</v>
-      </c>
-      <c r="O5" s="0" t="n">
-        <f aca="false">IF(K5=0, 1, K5)</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
@@ -6198,14 +6166,6 @@
       <c r="K6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M6" s="0" t="n">
-        <f aca="false">IF(I6=0, 1, I6)</f>
-        <v>1</v>
-      </c>
-      <c r="O6" s="0" t="n">
-        <f aca="false">IF(K6=0, 1, K6)</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
@@ -6241,14 +6201,6 @@
       <c r="K7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M7" s="0" t="n">
-        <f aca="false">IF(I7=0, 1, I7)</f>
-        <v>1</v>
-      </c>
-      <c r="O7" s="0" t="n">
-        <f aca="false">IF(K7=0, 1, K7)</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
@@ -6284,14 +6236,6 @@
       <c r="K8" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M8" s="0" t="n">
-        <f aca="false">IF(I8=0, 1, I8)</f>
-        <v>1</v>
-      </c>
-      <c r="O8" s="0" t="n">
-        <f aca="false">IF(K8=0, 1, K8)</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
@@ -6327,14 +6271,6 @@
       <c r="K9" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M9" s="0" t="n">
-        <f aca="false">IF(I9=0, 1, I9)</f>
-        <v>1</v>
-      </c>
-      <c r="O9" s="0" t="n">
-        <f aca="false">IF(K9=0, 1, K9)</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
@@ -6370,14 +6306,6 @@
       <c r="K10" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M10" s="0" t="n">
-        <f aca="false">IF(I10=0, 1, I10)</f>
-        <v>1</v>
-      </c>
-      <c r="O10" s="0" t="n">
-        <f aca="false">IF(K10=0, 1, K10)</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
@@ -6413,14 +6341,6 @@
       <c r="K11" s="0" t="n">
         <v>0.254885</v>
       </c>
-      <c r="M11" s="0" t="n">
-        <f aca="false">IF(I11=0, 1, I11)</f>
-        <v>0.089744</v>
-      </c>
-      <c r="O11" s="0" t="n">
-        <f aca="false">IF(K11=0, 1, K11)</f>
-        <v>0.254885</v>
-      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
@@ -6456,14 +6376,6 @@
       <c r="K12" s="0" t="n">
         <v>0.626047</v>
       </c>
-      <c r="M12" s="0" t="n">
-        <f aca="false">IF(I12=0, 1, I12)</f>
-        <v>0.379583</v>
-      </c>
-      <c r="O12" s="0" t="n">
-        <f aca="false">IF(K12=0, 1, K12)</f>
-        <v>0.626047</v>
-      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
@@ -6499,14 +6411,6 @@
       <c r="K13" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M13" s="0" t="n">
-        <f aca="false">IF(I13=0, 1, I13)</f>
-        <v>1</v>
-      </c>
-      <c r="O13" s="0" t="n">
-        <f aca="false">IF(K13=0, 1, K13)</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
@@ -6542,14 +6446,6 @@
       <c r="K14" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M14" s="0" t="n">
-        <f aca="false">IF(I14=0, 1, I14)</f>
-        <v>1</v>
-      </c>
-      <c r="O14" s="0" t="n">
-        <f aca="false">IF(K14=0, 1, K14)</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
@@ -6585,14 +6481,6 @@
       <c r="K15" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M15" s="0" t="n">
-        <f aca="false">IF(I15=0, 1, I15)</f>
-        <v>1</v>
-      </c>
-      <c r="O15" s="0" t="n">
-        <f aca="false">IF(K15=0, 1, K15)</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
@@ -6628,14 +6516,6 @@
       <c r="K16" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M16" s="0" t="n">
-        <f aca="false">IF(I16=0, 1, I16)</f>
-        <v>1</v>
-      </c>
-      <c r="O16" s="0" t="n">
-        <f aca="false">IF(K16=0, 1, K16)</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
@@ -6671,14 +6551,6 @@
       <c r="K17" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M17" s="0" t="n">
-        <f aca="false">IF(I17=0, 1, I17)</f>
-        <v>1</v>
-      </c>
-      <c r="O17" s="0" t="n">
-        <f aca="false">IF(K17=0, 1, K17)</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
@@ -6714,14 +6586,6 @@
       <c r="K18" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M18" s="0" t="n">
-        <f aca="false">IF(I18=0, 1, I18)</f>
-        <v>1</v>
-      </c>
-      <c r="O18" s="0" t="n">
-        <f aca="false">IF(K18=0, 1, K18)</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
@@ -6757,14 +6621,6 @@
       <c r="K19" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M19" s="0" t="n">
-        <f aca="false">IF(I19=0, 1, I19)</f>
-        <v>1</v>
-      </c>
-      <c r="O19" s="0" t="n">
-        <f aca="false">IF(K19=0, 1, K19)</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
@@ -6800,14 +6656,6 @@
       <c r="K20" s="0" t="n">
         <v>0.673442</v>
       </c>
-      <c r="M20" s="0" t="n">
-        <f aca="false">IF(I20=0, 1, I20)</f>
-        <v>0.163579</v>
-      </c>
-      <c r="O20" s="0" t="n">
-        <f aca="false">IF(K20=0, 1, K20)</f>
-        <v>0.673442</v>
-      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
@@ -6843,14 +6691,6 @@
       <c r="K21" s="0" t="n">
         <v>0.297432</v>
       </c>
-      <c r="M21" s="0" t="n">
-        <f aca="false">IF(I21=0, 1, I21)</f>
-        <v>0.092764</v>
-      </c>
-      <c r="O21" s="0" t="n">
-        <f aca="false">IF(K21=0, 1, K21)</f>
-        <v>0.297432</v>
-      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
@@ -6886,14 +6726,6 @@
       <c r="K22" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M22" s="0" t="n">
-        <f aca="false">IF(I22=0, 1, I22)</f>
-        <v>1</v>
-      </c>
-      <c r="O22" s="0" t="n">
-        <f aca="false">IF(K22=0, 1, K22)</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
@@ -6929,14 +6761,6 @@
       <c r="K23" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M23" s="0" t="n">
-        <f aca="false">IF(I23=0, 1, I23)</f>
-        <v>1</v>
-      </c>
-      <c r="O23" s="0" t="n">
-        <f aca="false">IF(K23=0, 1, K23)</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
@@ -6972,14 +6796,6 @@
       <c r="K24" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M24" s="0" t="n">
-        <f aca="false">IF(I24=0, 1, I24)</f>
-        <v>1</v>
-      </c>
-      <c r="O24" s="0" t="n">
-        <f aca="false">IF(K24=0, 1, K24)</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
@@ -7015,14 +6831,6 @@
       <c r="K25" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M25" s="0" t="n">
-        <f aca="false">IF(I25=0, 1, I25)</f>
-        <v>1</v>
-      </c>
-      <c r="O25" s="0" t="n">
-        <f aca="false">IF(K25=0, 1, K25)</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
@@ -7058,14 +6866,6 @@
       <c r="K26" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M26" s="0" t="n">
-        <f aca="false">IF(I26=0, 1, I26)</f>
-        <v>1</v>
-      </c>
-      <c r="O26" s="0" t="n">
-        <f aca="false">IF(K26=0, 1, K26)</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
@@ -7101,14 +6901,6 @@
       <c r="K27" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M27" s="0" t="n">
-        <f aca="false">IF(I27=0, 1, I27)</f>
-        <v>1</v>
-      </c>
-      <c r="O27" s="0" t="n">
-        <f aca="false">IF(K27=0, 1, K27)</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
@@ -7144,14 +6936,6 @@
       <c r="K28" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M28" s="0" t="n">
-        <f aca="false">IF(I28=0, 1, I28)</f>
-        <v>1</v>
-      </c>
-      <c r="O28" s="0" t="n">
-        <f aca="false">IF(K28=0, 1, K28)</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
@@ -7187,14 +6971,6 @@
       <c r="K29" s="0" t="n">
         <v>0.296062</v>
       </c>
-      <c r="M29" s="0" t="n">
-        <f aca="false">IF(I29=0, 1, I29)</f>
-        <v>0.157839</v>
-      </c>
-      <c r="O29" s="0" t="n">
-        <f aca="false">IF(K29=0, 1, K29)</f>
-        <v>0.296062</v>
-      </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
@@ -7230,14 +7006,6 @@
       <c r="K30" s="0" t="n">
         <v>0.24408</v>
       </c>
-      <c r="M30" s="0" t="n">
-        <f aca="false">IF(I30=0, 1, I30)</f>
-        <v>0.091221</v>
-      </c>
-      <c r="O30" s="0" t="n">
-        <f aca="false">IF(K30=0, 1, K30)</f>
-        <v>0.24408</v>
-      </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
@@ -7273,14 +7041,6 @@
       <c r="K31" s="0" t="n">
         <v>0.895531</v>
       </c>
-      <c r="M31" s="0" t="n">
-        <f aca="false">IF(I31=0, 1, I31)</f>
-        <v>0.459708</v>
-      </c>
-      <c r="O31" s="0" t="n">
-        <f aca="false">IF(K31=0, 1, K31)</f>
-        <v>0.895531</v>
-      </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
@@ -7316,14 +7076,6 @@
       <c r="K32" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M32" s="0" t="n">
-        <f aca="false">IF(I32=0, 1, I32)</f>
-        <v>1</v>
-      </c>
-      <c r="O32" s="0" t="n">
-        <f aca="false">IF(K32=0, 1, K32)</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
@@ -7359,14 +7111,6 @@
       <c r="K33" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M33" s="0" t="n">
-        <f aca="false">IF(I33=0, 1, I33)</f>
-        <v>1</v>
-      </c>
-      <c r="O33" s="0" t="n">
-        <f aca="false">IF(K33=0, 1, K33)</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
@@ -7402,14 +7146,6 @@
       <c r="K34" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M34" s="0" t="n">
-        <f aca="false">IF(I34=0, 1, I34)</f>
-        <v>1</v>
-      </c>
-      <c r="O34" s="0" t="n">
-        <f aca="false">IF(K34=0, 1, K34)</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
@@ -7445,14 +7181,6 @@
       <c r="K35" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M35" s="0" t="n">
-        <f aca="false">IF(I35=0, 1, I35)</f>
-        <v>1</v>
-      </c>
-      <c r="O35" s="0" t="n">
-        <f aca="false">IF(K35=0, 1, K35)</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
@@ -7488,14 +7216,6 @@
       <c r="K36" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M36" s="0" t="n">
-        <f aca="false">IF(I36=0, 1, I36)</f>
-        <v>1</v>
-      </c>
-      <c r="O36" s="0" t="n">
-        <f aca="false">IF(K36=0, 1, K36)</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
@@ -7531,14 +7251,6 @@
       <c r="K37" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M37" s="0" t="n">
-        <f aca="false">IF(I37=0, 1, I37)</f>
-        <v>1</v>
-      </c>
-      <c r="O37" s="0" t="n">
-        <f aca="false">IF(K37=0, 1, K37)</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
@@ -7574,14 +7286,6 @@
       <c r="K38" s="0" t="n">
         <v>0.970091</v>
       </c>
-      <c r="M38" s="0" t="n">
-        <f aca="false">IF(I38=0, 1, I38)</f>
-        <v>0.330104</v>
-      </c>
-      <c r="O38" s="0" t="n">
-        <f aca="false">IF(K38=0, 1, K38)</f>
-        <v>0.970091</v>
-      </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
@@ -7617,14 +7321,6 @@
       <c r="K39" s="0" t="n">
         <v>0.798621</v>
       </c>
-      <c r="M39" s="0" t="n">
-        <f aca="false">IF(I39=0, 1, I39)</f>
-        <v>0.244149</v>
-      </c>
-      <c r="O39" s="0" t="n">
-        <f aca="false">IF(K39=0, 1, K39)</f>
-        <v>0.798621</v>
-      </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
@@ -7660,14 +7356,6 @@
       <c r="K40" s="0" t="n">
         <v>0.262127</v>
       </c>
-      <c r="M40" s="0" t="n">
-        <f aca="false">IF(I40=0, 1, I40)</f>
-        <v>0.140122</v>
-      </c>
-      <c r="O40" s="0" t="n">
-        <f aca="false">IF(K40=0, 1, K40)</f>
-        <v>0.262127</v>
-      </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
@@ -7703,14 +7391,6 @@
       <c r="K41" s="0" t="n">
         <v>0.655637</v>
       </c>
-      <c r="M41" s="0" t="n">
-        <f aca="false">IF(I41=0, 1, I41)</f>
-        <v>0.59855</v>
-      </c>
-      <c r="O41" s="0" t="n">
-        <f aca="false">IF(K41=0, 1, K41)</f>
-        <v>0.655637</v>
-      </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
@@ -7746,14 +7426,6 @@
       <c r="K42" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M42" s="0" t="n">
-        <f aca="false">IF(I42=0, 1, I42)</f>
-        <v>1</v>
-      </c>
-      <c r="O42" s="0" t="n">
-        <f aca="false">IF(K42=0, 1, K42)</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
@@ -7789,14 +7461,6 @@
       <c r="K43" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M43" s="0" t="n">
-        <f aca="false">IF(I43=0, 1, I43)</f>
-        <v>1</v>
-      </c>
-      <c r="O43" s="0" t="n">
-        <f aca="false">IF(K43=0, 1, K43)</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
@@ -7832,14 +7496,6 @@
       <c r="K44" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M44" s="0" t="n">
-        <f aca="false">IF(I44=0, 1, I44)</f>
-        <v>1</v>
-      </c>
-      <c r="O44" s="0" t="n">
-        <f aca="false">IF(K44=0, 1, K44)</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
@@ -7875,14 +7531,6 @@
       <c r="K45" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M45" s="0" t="n">
-        <f aca="false">IF(I45=0, 1, I45)</f>
-        <v>1</v>
-      </c>
-      <c r="O45" s="0" t="n">
-        <f aca="false">IF(K45=0, 1, K45)</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
@@ -7918,14 +7566,6 @@
       <c r="K46" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M46" s="0" t="n">
-        <f aca="false">IF(I46=0, 1, I46)</f>
-        <v>1</v>
-      </c>
-      <c r="O46" s="0" t="n">
-        <f aca="false">IF(K46=0, 1, K46)</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
@@ -7961,14 +7601,6 @@
       <c r="K47" s="0" t="n">
         <v>0.530853</v>
       </c>
-      <c r="M47" s="0" t="n">
-        <f aca="false">IF(I47=0, 1, I47)</f>
-        <v>0.407182</v>
-      </c>
-      <c r="O47" s="0" t="n">
-        <f aca="false">IF(K47=0, 1, K47)</f>
-        <v>0.530853</v>
-      </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="n">
@@ -8004,14 +7636,6 @@
       <c r="K48" s="0" t="n">
         <v>0.873306</v>
       </c>
-      <c r="M48" s="0" t="n">
-        <f aca="false">IF(I48=0, 1, I48)</f>
-        <v>0.294374</v>
-      </c>
-      <c r="O48" s="0" t="n">
-        <f aca="false">IF(K48=0, 1, K48)</f>
-        <v>0.873306</v>
-      </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="n">
@@ -8047,14 +7671,6 @@
       <c r="K49" s="0" t="n">
         <v>0.355691</v>
       </c>
-      <c r="M49" s="0" t="n">
-        <f aca="false">IF(I49=0, 1, I49)</f>
-        <v>0.164467</v>
-      </c>
-      <c r="O49" s="0" t="n">
-        <f aca="false">IF(K49=0, 1, K49)</f>
-        <v>0.355691</v>
-      </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="n">
@@ -8090,14 +7706,6 @@
       <c r="K50" s="0" t="n">
         <v>0.804388</v>
       </c>
-      <c r="M50" s="0" t="n">
-        <f aca="false">IF(I50=0, 1, I50)</f>
-        <v>0.330137</v>
-      </c>
-      <c r="O50" s="0" t="n">
-        <f aca="false">IF(K50=0, 1, K50)</f>
-        <v>0.804388</v>
-      </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="n">
@@ -8133,14 +7741,6 @@
       <c r="K51" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M51" s="0" t="n">
-        <f aca="false">IF(I51=0, 1, I51)</f>
-        <v>1</v>
-      </c>
-      <c r="O51" s="0" t="n">
-        <f aca="false">IF(K51=0, 1, K51)</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="n">
@@ -8176,14 +7776,6 @@
       <c r="K52" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M52" s="0" t="n">
-        <f aca="false">IF(I52=0, 1, I52)</f>
-        <v>1</v>
-      </c>
-      <c r="O52" s="0" t="n">
-        <f aca="false">IF(K52=0, 1, K52)</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="n">
@@ -8219,14 +7811,6 @@
       <c r="K53" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M53" s="0" t="n">
-        <f aca="false">IF(I53=0, 1, I53)</f>
-        <v>1</v>
-      </c>
-      <c r="O53" s="0" t="n">
-        <f aca="false">IF(K53=0, 1, K53)</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="n">
@@ -8262,14 +7846,6 @@
       <c r="K54" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M54" s="0" t="n">
-        <f aca="false">IF(I54=0, 1, I54)</f>
-        <v>1</v>
-      </c>
-      <c r="O54" s="0" t="n">
-        <f aca="false">IF(K54=0, 1, K54)</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="n">
@@ -8305,14 +7881,6 @@
       <c r="K55" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M55" s="0" t="n">
-        <f aca="false">IF(I55=0, 1, I55)</f>
-        <v>1</v>
-      </c>
-      <c r="O55" s="0" t="n">
-        <f aca="false">IF(K55=0, 1, K55)</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="n">
@@ -8348,14 +7916,6 @@
       <c r="K56" s="0" t="n">
         <v>0.999759</v>
       </c>
-      <c r="M56" s="0" t="n">
-        <f aca="false">IF(I56=0, 1, I56)</f>
-        <v>0.941172</v>
-      </c>
-      <c r="O56" s="0" t="n">
-        <f aca="false">IF(K56=0, 1, K56)</f>
-        <v>0.999759</v>
-      </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="n">
@@ -8391,14 +7951,6 @@
       <c r="K57" s="0" t="n">
         <v>0.663954</v>
       </c>
-      <c r="M57" s="0" t="n">
-        <f aca="false">IF(I57=0, 1, I57)</f>
-        <v>0.42602</v>
-      </c>
-      <c r="O57" s="0" t="n">
-        <f aca="false">IF(K57=0, 1, K57)</f>
-        <v>0.663954</v>
-      </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="n">
@@ -8434,14 +7986,6 @@
       <c r="K58" s="0" t="n">
         <v>0.513715</v>
       </c>
-      <c r="M58" s="0" t="n">
-        <f aca="false">IF(I58=0, 1, I58)</f>
-        <v>0.274315</v>
-      </c>
-      <c r="O58" s="0" t="n">
-        <f aca="false">IF(K58=0, 1, K58)</f>
-        <v>0.513715</v>
-      </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="n">
@@ -8477,14 +8021,6 @@
       <c r="K59" s="0" t="n">
         <v>0.633066</v>
       </c>
-      <c r="M59" s="0" t="n">
-        <f aca="false">IF(I59=0, 1, I59)</f>
-        <v>0.284678</v>
-      </c>
-      <c r="O59" s="0" t="n">
-        <f aca="false">IF(K59=0, 1, K59)</f>
-        <v>0.633066</v>
-      </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="n">
@@ -8520,14 +8056,6 @@
       <c r="K60" s="0" t="n">
         <v>0.886136</v>
       </c>
-      <c r="M60" s="0" t="n">
-        <f aca="false">IF(I60=0, 1, I60)</f>
-        <v>0.377844</v>
-      </c>
-      <c r="O60" s="0" t="n">
-        <f aca="false">IF(K60=0, 1, K60)</f>
-        <v>0.886136</v>
-      </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="n">
@@ -8563,14 +8091,6 @@
       <c r="K61" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M61" s="0" t="n">
-        <f aca="false">IF(I61=0, 1, I61)</f>
-        <v>1</v>
-      </c>
-      <c r="O61" s="0" t="n">
-        <f aca="false">IF(K61=0, 1, K61)</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="n">
@@ -8606,14 +8126,6 @@
       <c r="K62" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M62" s="0" t="n">
-        <f aca="false">IF(I62=0, 1, I62)</f>
-        <v>1</v>
-      </c>
-      <c r="O62" s="0" t="n">
-        <f aca="false">IF(K62=0, 1, K62)</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="n">
@@ -8649,14 +8161,6 @@
       <c r="K63" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M63" s="0" t="n">
-        <f aca="false">IF(I63=0, 1, I63)</f>
-        <v>1</v>
-      </c>
-      <c r="O63" s="0" t="n">
-        <f aca="false">IF(K63=0, 1, K63)</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="n">
@@ -8692,14 +8196,6 @@
       <c r="K64" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M64" s="0" t="n">
-        <f aca="false">IF(I64=0, 1, I64)</f>
-        <v>1</v>
-      </c>
-      <c r="O64" s="0" t="n">
-        <f aca="false">IF(K64=0, 1, K64)</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="n">
@@ -8735,14 +8231,6 @@
       <c r="K65" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M65" s="0" t="n">
-        <f aca="false">IF(I65=0, 1, I65)</f>
-        <v>1</v>
-      </c>
-      <c r="O65" s="0" t="n">
-        <f aca="false">IF(K65=0, 1, K65)</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="n">
@@ -8778,14 +8266,6 @@
       <c r="K66" s="0" t="n">
         <v>0.981431</v>
       </c>
-      <c r="M66" s="0" t="n">
-        <f aca="false">IF(I66=0, 1, I66)</f>
-        <v>0.547217</v>
-      </c>
-      <c r="O66" s="0" t="n">
-        <f aca="false">IF(K66=0, 1, K66)</f>
-        <v>0.981431</v>
-      </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="n">
@@ -8821,14 +8301,6 @@
       <c r="K67" s="0" t="n">
         <v>0.558652</v>
       </c>
-      <c r="M67" s="0" t="n">
-        <f aca="false">IF(I67=0, 1, I67)</f>
-        <v>0.415041</v>
-      </c>
-      <c r="O67" s="0" t="n">
-        <f aca="false">IF(K67=0, 1, K67)</f>
-        <v>0.558652</v>
-      </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="n">
@@ -8864,14 +8336,6 @@
       <c r="K68" s="0" t="n">
         <v>0.606181</v>
       </c>
-      <c r="M68" s="0" t="n">
-        <f aca="false">IF(I68=0, 1, I68)</f>
-        <v>0.345158</v>
-      </c>
-      <c r="O68" s="0" t="n">
-        <f aca="false">IF(K68=0, 1, K68)</f>
-        <v>0.606181</v>
-      </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="n">
@@ -8907,14 +8371,6 @@
       <c r="K69" s="0" t="n">
         <v>0.602068</v>
       </c>
-      <c r="M69" s="0" t="n">
-        <f aca="false">IF(I69=0, 1, I69)</f>
-        <v>0.387475</v>
-      </c>
-      <c r="O69" s="0" t="n">
-        <f aca="false">IF(K69=0, 1, K69)</f>
-        <v>0.602068</v>
-      </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="n">
@@ -8950,14 +8406,6 @@
       <c r="K70" s="0" t="n">
         <v>0.244256</v>
       </c>
-      <c r="M70" s="0" t="n">
-        <f aca="false">IF(I70=0, 1, I70)</f>
-        <v>0.227071</v>
-      </c>
-      <c r="O70" s="0" t="n">
-        <f aca="false">IF(K70=0, 1, K70)</f>
-        <v>0.244256</v>
-      </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="n">
@@ -8993,14 +8441,6 @@
       <c r="K71" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M71" s="0" t="n">
-        <f aca="false">IF(I71=0, 1, I71)</f>
-        <v>1</v>
-      </c>
-      <c r="O71" s="0" t="n">
-        <f aca="false">IF(K71=0, 1, K71)</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="n">
@@ -9036,14 +8476,6 @@
       <c r="K72" s="0" t="n">
         <v>0.461747</v>
       </c>
-      <c r="M72" s="0" t="n">
-        <f aca="false">IF(I72=0, 1, I72)</f>
-        <v>0.461747</v>
-      </c>
-      <c r="O72" s="0" t="n">
-        <f aca="false">IF(K72=0, 1, K72)</f>
-        <v>0.461747</v>
-      </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="n">
@@ -9079,14 +8511,6 @@
       <c r="K73" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M73" s="0" t="n">
-        <f aca="false">IF(I73=0, 1, I73)</f>
-        <v>1</v>
-      </c>
-      <c r="O73" s="0" t="n">
-        <f aca="false">IF(K73=0, 1, K73)</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="n">
@@ -9122,14 +8546,6 @@
       <c r="K74" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M74" s="0" t="n">
-        <f aca="false">IF(I74=0, 1, I74)</f>
-        <v>1</v>
-      </c>
-      <c r="O74" s="0" t="n">
-        <f aca="false">IF(K74=0, 1, K74)</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="n">
@@ -9165,14 +8581,6 @@
       <c r="K75" s="0" t="n">
         <v>0.978708</v>
       </c>
-      <c r="M75" s="0" t="n">
-        <f aca="false">IF(I75=0, 1, I75)</f>
-        <v>0.957709</v>
-      </c>
-      <c r="O75" s="0" t="n">
-        <f aca="false">IF(K75=0, 1, K75)</f>
-        <v>0.978708</v>
-      </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="n">
@@ -9208,14 +8616,6 @@
       <c r="K76" s="0" t="n">
         <v>0.962732</v>
       </c>
-      <c r="M76" s="0" t="n">
-        <f aca="false">IF(I76=0, 1, I76)</f>
-        <v>0.829092</v>
-      </c>
-      <c r="O76" s="0" t="n">
-        <f aca="false">IF(K76=0, 1, K76)</f>
-        <v>0.962732</v>
-      </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="n">
@@ -9251,14 +8651,6 @@
       <c r="K77" s="0" t="n">
         <v>0.827269</v>
       </c>
-      <c r="M77" s="0" t="n">
-        <f aca="false">IF(I77=0, 1, I77)</f>
-        <v>0.71042</v>
-      </c>
-      <c r="O77" s="0" t="n">
-        <f aca="false">IF(K77=0, 1, K77)</f>
-        <v>0.827269</v>
-      </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="n">
@@ -9294,14 +8686,6 @@
       <c r="K78" s="0" t="n">
         <v>0.91122</v>
       </c>
-      <c r="M78" s="0" t="n">
-        <f aca="false">IF(I78=0, 1, I78)</f>
-        <v>0.74346</v>
-      </c>
-      <c r="O78" s="0" t="n">
-        <f aca="false">IF(K78=0, 1, K78)</f>
-        <v>0.91122</v>
-      </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="n">
@@ -9337,14 +8721,6 @@
       <c r="K79" s="0" t="n">
         <v>0.643797</v>
       </c>
-      <c r="M79" s="0" t="n">
-        <f aca="false">IF(I79=0, 1, I79)</f>
-        <v>0.556667</v>
-      </c>
-      <c r="O79" s="0" t="n">
-        <f aca="false">IF(K79=0, 1, K79)</f>
-        <v>0.643797</v>
-      </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="n">
@@ -9380,14 +8756,6 @@
       <c r="K80" s="0" t="n">
         <v>0.781078</v>
       </c>
-      <c r="M80" s="0" t="n">
-        <f aca="false">IF(I80=0, 1, I80)</f>
-        <v>0.597565</v>
-      </c>
-      <c r="O80" s="0" t="n">
-        <f aca="false">IF(K80=0, 1, K80)</f>
-        <v>0.781078</v>
-      </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="n">
@@ -9423,14 +8791,6 @@
       <c r="K81" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="M81" s="0" t="n">
-        <f aca="false">IF(I81=0, 1, I81)</f>
-        <v>1</v>
-      </c>
-      <c r="O81" s="0" t="n">
-        <f aca="false">IF(K81=0, 1, K81)</f>
-        <v>1</v>
-      </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="n">
@@ -9464,14 +8824,6 @@
         <v>1</v>
       </c>
       <c r="K82" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" s="0" t="n">
-        <f aca="false">IF(I82=0, 1, I82)</f>
-        <v>1</v>
-      </c>
-      <c r="O82" s="0" t="n">
-        <f aca="false">IF(K82=0, 1, K82)</f>
         <v>1</v>
       </c>
     </row>
@@ -9497,7 +8849,7 @@
       <selection pane="topLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
